--- a/服务管理中心.xlsx
+++ b/服务管理中心.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>品控报表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -147,12 +147,198 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>审核基本情况核实表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>是或否</t>
+  </si>
+  <si>
+    <t>处理办法</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>装修工程质量问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格项目</t>
+  </si>
+  <si>
+    <t>整改要求</t>
+  </si>
+  <si>
+    <t>罚款</t>
+  </si>
+  <si>
+    <t>供应商材料、零件、质量检查表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查种类</t>
+  </si>
+  <si>
+    <t>材料/零件名称</t>
+  </si>
+  <si>
+    <t>材料品牌/规格</t>
+  </si>
+  <si>
+    <t>材料数量</t>
+  </si>
+  <si>
+    <t>供货单位</t>
+  </si>
+  <si>
+    <t>检查日期</t>
+  </si>
+  <si>
+    <t>核检 员</t>
+  </si>
+  <si>
+    <t>检验项目</t>
+  </si>
+  <si>
+    <t>品牌/规格</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>不合格</t>
+  </si>
+  <si>
+    <t>不合格原因概述</t>
+  </si>
+  <si>
+    <t>供应商工程工序检查表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋地址</t>
+  </si>
+  <si>
+    <t>台  账</t>
+  </si>
+  <si>
+    <t>工序名称</t>
+  </si>
+  <si>
+    <t>工序要求</t>
+  </si>
+  <si>
+    <t>检查项目</t>
+  </si>
+  <si>
+    <t>质量标准</t>
+  </si>
+  <si>
+    <t>检验结果</t>
+  </si>
+  <si>
+    <t>检测结果</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决时间   </t>
+  </si>
+  <si>
+    <t>供应商质量检查表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台 账</t>
+  </si>
+  <si>
+    <t>施 工 方：</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>核检人员</t>
+  </si>
+  <si>
+    <t>核查日期</t>
+  </si>
+  <si>
+    <t>检验记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决时间  </t>
+  </si>
+  <si>
+    <t>总部及营业部作业标准检查表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查对象</t>
+  </si>
+  <si>
+    <t>核查部门</t>
+  </si>
+  <si>
+    <t>部门经理</t>
+  </si>
+  <si>
+    <t>核查时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业标准</t>
+  </si>
+  <si>
+    <t>解决时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反规定明细及惩罚表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受核检项目</t>
+  </si>
+  <si>
+    <t>出表日期</t>
+  </si>
+  <si>
+    <t>核审准则</t>
+  </si>
+  <si>
+    <t>核检项目</t>
+  </si>
+  <si>
+    <t>受检房屋台账</t>
+  </si>
+  <si>
+    <t>受检日期</t>
+  </si>
+  <si>
+    <t>所违反制度</t>
+  </si>
+  <si>
+    <t>处罚情况</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +382,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +557,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -381,7 +575,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -399,21 +593,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -427,6 +606,15 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -437,28 +625,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,20 +651,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,179 +998,1089 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>5</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="11">
+        <v>6</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="11">
+        <v>7</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="12"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="12"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="12"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="12"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="12"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="12"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="11">
+        <v>8</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="12"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="12"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="12"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="12"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="12"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="12"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="A20:A32"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
